--- a/xls/guildAdviserConfig.xlsx
+++ b/xls/guildAdviserConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="18600" yWindow="0" windowWidth="27765" windowHeight="13650" activeTab="1"/>
+    <workbookView xWindow="18600" yWindow="30" windowWidth="27765" windowHeight="13620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="代对表=" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>id</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -25,10 +25,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>初始等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -37,11 +33,83 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>属性名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>addProp[.][funcStr]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始好友度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>initBelong[.][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始归属</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>齐达内</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性名</t>
+  </si>
+  <si>
+    <t>穆里尼奥</t>
+  </si>
+  <si>
+    <t>安切洛蒂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">阿莱格里 </t>
+  </si>
+  <si>
+    <t>克洛普</t>
+  </si>
+  <si>
+    <t>弗格森</t>
+  </si>
+  <si>
+    <t>埃梅里</t>
+  </si>
+  <si>
+    <t>孔蒂</t>
+  </si>
+  <si>
+    <t>拉涅利</t>
+  </si>
+  <si>
+    <t>瓜迪奥拉</t>
+  </si>
+  <si>
+    <t>范加尔</t>
+  </si>
+  <si>
+    <t>温格</t>
+  </si>
+  <si>
+    <t>勒夫</t>
+  </si>
+  <si>
+    <t>恩里克</t>
+  </si>
+  <si>
+    <t>西蒙尼</t>
+  </si>
+  <si>
+    <t>因凡蒂诺</t>
+  </si>
+  <si>
+    <t>shootPercent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>defendPercent</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -49,31 +117,102 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>addProp[.][funcStr]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>star[.][funcInt]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓜迪奥拉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>恩格斯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔蒂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>value[.][funcInt]</t>
+    <t>defend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>里皮</t>
+  </si>
+  <si>
+    <t>keepPercent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trick</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>steal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>controllPercent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>controll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tech</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>health</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tech</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>guildName[.][funcStr]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化公会名字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>helloGy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>superMan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>superMan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>helloGy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>superMan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>helloGy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>value[.][funcFloat]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信心值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -81,15 +220,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>初始好友度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>initBelong[.][funcInt]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始归属</t>
+    <t>confidenceValue[.][funcInt]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -97,7 +228,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,13 +280,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -165,7 +289,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -173,19 +297,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -506,7 +647,7 @@
   <sheetData>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -535,279 +676,517 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="26.125" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="3">
-        <v>100</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+        <v>9999998</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.106</v>
+      </c>
+      <c r="F3" s="5">
+        <v>6000</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="3">
-        <v>200</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1001</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+        <v>9999999</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.106</v>
+      </c>
+      <c r="F4" s="5">
+        <v>6000</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="4">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="3">
-        <v>300</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1002</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+        <v>9999999</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="4">
+        <v>600</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4">
+        <v>9999998</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="4">
+        <v>300</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4">
+        <v>9999998</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.106</v>
+      </c>
+      <c r="F7" s="5">
+        <v>4800</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C8" s="4">
+        <v>9999999</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="4">
+        <v>450</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4">
+        <v>9999998</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="4">
+        <v>600</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2400</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4">
+        <v>9999999</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="4">
+        <v>600</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2400</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4">
+        <v>9999999</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="4">
+        <v>600</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2400</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="4">
+        <v>9999998</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="4">
+        <v>600</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2400</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="4">
+        <v>9999999</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.105</v>
+      </c>
+      <c r="F13" s="5">
+        <v>6000</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="4">
+        <v>9999999</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="4">
+        <v>900</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2400</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="4">
+        <v>9999998</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F15" s="5">
+        <v>4800</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="4">
+        <v>9999999</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F16" s="5">
+        <v>4800</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4">
+        <v>9999998</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+      <c r="F17" s="5">
+        <v>3600</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4">
+        <v>9999999</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="3">
-        <v>400</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1003</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="F18" s="5">
+        <v>3600</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="4">
+        <v>9999998</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="F19" s="7">
+        <v>5000</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G28" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
